--- a/[2분반]2015136102_이재성_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/[2분반]2015136102_이재성_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -269,6 +264,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,12 +277,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,7 +675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,7 +710,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,7 +887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -903,7 +898,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -918,66 +913,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>2015136102</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1018,7 +1013,7 @@
       <c r="E7" s="2">
         <v>16500</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1035,10 +1030,10 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>1800</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="2"/>
@@ -1059,7 +1054,7 @@
       <c r="E9" s="2">
         <v>1630</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1079,7 +1074,7 @@
       <c r="E10" s="2">
         <v>18980</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1099,7 +1094,7 @@
       <c r="E11" s="2">
         <v>3000</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="2"/>
@@ -1120,7 +1115,7 @@
       <c r="E12" s="2">
         <v>3000</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1167,7 +1162,9 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>44910</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>

--- a/[2분반]2015136102_이재성_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/[2분반]2015136102_이재성_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://storefarm.naver.com/dcp99/products/343107179</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> HM-10 블루투스 모듈　</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,39 +93,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[리튬전지] CR203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://storefarm.naver.com/iotdiyshop/products/370632669</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.vctec.co.kr/product/detail.html?product_no=890&amp;cate_no=140&amp;display_group=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.eleparts.co.kr/EPXFDCAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.eleparts.co.kr/EPX37WLR　</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[리튬전지] CR203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.eleparts.co.kr/EPXFDCAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMP006 비접촉 온도 센서 모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://vctec.co.kr/product/detail.html?product_no=3832&amp;cate_no=145&amp;display_group=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소켓 점퍼케이블 DC-40P 20CM(M/M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.eleparts.co.kr/EPXCTKH8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">소켓 점퍼케이블 DC-40P 20CM (F/F) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.eleparts.co.kr/EPXCTKHA</t>
+    <t>소켓 점퍼케이블 DC-40P 20CM (M/F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.eleparts.co.kr/EPXCTKH9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMP006 비접촉 적외선 열전대열 센서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,61 +294,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1895475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1409701</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="_x505636944" descr="EMB000015f0389a"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9144000" y="1276351"/>
-          <a:ext cx="1562100" cy="1390650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -375,7 +312,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -412,15 +349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1919490</xdr:colOff>
+      <xdr:colOff>1890915</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1247775</xdr:rowOff>
+      <xdr:rowOff>1257300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -430,7 +367,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -444,7 +381,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9105900" y="4152900"/>
+          <a:off x="13144500" y="4162425"/>
           <a:ext cx="1624215" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -464,167 +401,116 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1190625</xdr:rowOff>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="_x505635904" descr="EMB000015f03895"/>
+        <xdr:cNvPr id="9" name="그림 8"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="12506325" y="5514975"/>
-          <a:ext cx="1304925" cy="1133475"/>
+          <a:off x="12944475" y="1323975"/>
+          <a:ext cx="1866900" cy="1374947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1314450</xdr:rowOff>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1249317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="_x508223336" descr="EMB000015f038ea"/>
+        <xdr:cNvPr id="10" name="그림 9"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="13249275" y="6800850"/>
-          <a:ext cx="1304925" cy="1238250"/>
+          <a:off x="13144500" y="5534025"/>
+          <a:ext cx="1514475" cy="1173117"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>828675</xdr:rowOff>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1353912</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="_x508226056" descr="EMB000015f038ed"/>
+        <xdr:cNvPr id="11" name="그림 10"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="13173075" y="8162925"/>
-          <a:ext cx="1304925" cy="752475"/>
+          <a:off x="13030200" y="6791326"/>
+          <a:ext cx="1638300" cy="1287236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -887,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,7 +784,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -906,7 +792,7 @@
     <col min="2" max="2" width="38.125" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="86.75" customWidth="1"/>
-    <col min="7" max="7" width="26.25" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1002,19 +888,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>16500</v>
+        <v>15600</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>16500</v>
+        <v>31200</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1022,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>900</v>
@@ -1034,7 +920,7 @@
         <v>1800</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1043,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>1630</v>
@@ -1063,19 +949,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>18980</v>
+        <v>14500</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>18980</v>
+        <v>29000</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1083,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>3000</v>
@@ -1095,29 +981,17 @@
         <v>3000</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
-      </c>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1163,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>44910</v>
+        <v>66630</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1183,10 +1057,9 @@
     <hyperlink ref="F9" r:id="rId3"/>
     <hyperlink ref="F10" r:id="rId4"/>
     <hyperlink ref="F11" r:id="rId5"/>
-    <hyperlink ref="F12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/[2분반]2015136102_이재성_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/[2분반]2015136102_이재성_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +127,14 @@
   </si>
   <si>
     <t>TMP006 비접촉 적외선 열전대열 센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.eleparts.co.kr/EPXCTKH8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소켓 점퍼케이블 DC-40P 20CM (M/M)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,6 +528,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1657351</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1318603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13201651" y="8201025"/>
+          <a:ext cx="1333500" cy="1204303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -773,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -783,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -985,13 +1036,25 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+    <row r="12" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1057,9 +1120,10 @@
     <hyperlink ref="F9" r:id="rId3"/>
     <hyperlink ref="F10" r:id="rId4"/>
     <hyperlink ref="F11" r:id="rId5"/>
+    <hyperlink ref="F12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/[2분반]2015136102_이재성_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/[2분반]2015136102_이재성_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>66630</v>
+        <v>69630</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>

--- a/[2분반]2015136102_이재성_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/[2분반]2015136102_이재성_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7485"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,23 +113,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소켓 점퍼케이블 DC-40P 20CM (M/F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.eleparts.co.kr/EPXCTKH9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TMP006 비접촉 적외선 열전대열 센서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.eleparts.co.kr/EPXCTKH8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소켓 점퍼케이블 DC-40P 20CM (M/M)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,82 +461,6 @@
         <a:xfrm>
           <a:off x="13144500" y="5534025"/>
           <a:ext cx="1514475" cy="1173117"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1790700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1353912</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13030200" y="6791326"/>
-          <a:ext cx="1638300" cy="1287236"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1657351</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1318603</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13201651" y="8201025"/>
-          <a:ext cx="1333500" cy="1204303"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -824,7 +727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1000,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>14500</v>
@@ -1015,46 +918,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1100,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>69630</v>
+        <v>63630</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1119,11 +998,9 @@
     <hyperlink ref="F8" r:id="rId2"/>
     <hyperlink ref="F9" r:id="rId3"/>
     <hyperlink ref="F10" r:id="rId4"/>
-    <hyperlink ref="F11" r:id="rId5"/>
-    <hyperlink ref="F12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>